--- a/data/Well-Being-results/0112.xlsx
+++ b/data/Well-Being-results/0112.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8B795A0-36CB-4755-A21D-09BDA37BDBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89CC62CC-E14A-4884-A84E-2276DB9D84C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="回答データ" sheetId="7" r:id="rId1"/>
@@ -29,28 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,7 +445,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,8 +651,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{2FC890F7-D3C8-4986-BE97-76002939BD3B}"/>
-    <cellStyle name="標準_地域資源【認定】20130213" xfId="1" xr:uid="{4D6EFD0D-CCB0-4404-8DC5-25CE4A4C2C92}"/>
+    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準_地域資源【認定】20130213" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -991,27 +968,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF706100-2561-4B8D-B2B8-8BE454076169}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="B1:BE1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" style="9" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="6.5" style="5"/>
-    <col min="16" max="16" width="6.5" style="14"/>
-    <col min="17" max="16384" width="6.5" style="5"/>
+    <col min="2" max="2" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="42" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="11.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="7.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="6.5" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:57" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6165,18 +6176,15 @@
       <c r="E33" s="4">
         <v>1850012</v>
       </c>
-      <c r="F33" s="12" t="e" cm="1">
-        <f t="array" ref="F33">_xlfn.XLOOKUP($B33,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F33" s="12">
+        <v>7</v>
       </c>
       <c r="G33" s="15"/>
-      <c r="H33" s="12" t="e" cm="1">
-        <f t="array" ref="H33">_xlfn.XLOOKUP($B33,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I33" s="12" t="e" cm="1">
-        <f t="array" ref="I33">_xlfn.XLOOKUP($B33,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H33" s="12">
+        <v>8</v>
+      </c>
+      <c r="I33" s="12">
+        <v>8</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="17"/>
@@ -6186,30 +6194,25 @@
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="5" t="e" cm="1">
-        <f t="array" ref="R33">_xlfn.XLOOKUP($B33,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R33" s="5">
+        <v>5</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
-      <c r="X33" s="5" t="e" cm="1">
-        <f t="array" ref="X33">_xlfn.XLOOKUP($B33,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y33" s="5" t="e" cm="1">
-        <f t="array" ref="Y33">_xlfn.XLOOKUP($B33,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z33" s="5" t="e" cm="1">
-        <f t="array" ref="Z33">_xlfn.XLOOKUP($B33,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA33" s="5" t="e" cm="1">
-        <f t="array" ref="AA33">_xlfn.XLOOKUP($B33,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X33" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>4</v>
       </c>
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
@@ -6240,9 +6243,8 @@
       <c r="BB33" s="15"/>
       <c r="BC33" s="15"/>
       <c r="BD33" s="15"/>
-      <c r="BE33" s="5" t="e" cm="1">
-        <f t="array" ref="BE33">_xlfn.XLOOKUP($B33,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE33" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:57" x14ac:dyDescent="0.45">
@@ -6258,18 +6260,15 @@
       <c r="E34" s="4">
         <v>7611707</v>
       </c>
-      <c r="F34" s="12" t="e" cm="1">
-        <f t="array" ref="F34">_xlfn.XLOOKUP($B34,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F34" s="12">
+        <v>8</v>
       </c>
       <c r="G34" s="15"/>
-      <c r="H34" s="12" t="e" cm="1">
-        <f t="array" ref="H34">_xlfn.XLOOKUP($B34,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I34" s="12" t="e" cm="1">
-        <f t="array" ref="I34">_xlfn.XLOOKUP($B34,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H34" s="12">
+        <v>8</v>
+      </c>
+      <c r="I34" s="12">
+        <v>6</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="17"/>
@@ -6279,30 +6278,25 @@
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
-      <c r="R34" s="5" t="e" cm="1">
-        <f t="array" ref="R34">_xlfn.XLOOKUP($B34,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R34" s="5">
+        <v>1</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
-      <c r="X34" s="5" t="e" cm="1">
-        <f t="array" ref="X34">_xlfn.XLOOKUP($B34,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y34" s="5" t="e" cm="1">
-        <f t="array" ref="Y34">_xlfn.XLOOKUP($B34,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z34" s="5" t="e" cm="1">
-        <f t="array" ref="Z34">_xlfn.XLOOKUP($B34,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA34" s="5" t="e" cm="1">
-        <f t="array" ref="AA34">_xlfn.XLOOKUP($B34,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X34" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>4</v>
       </c>
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
@@ -6333,9 +6327,8 @@
       <c r="BB34" s="15"/>
       <c r="BC34" s="15"/>
       <c r="BD34" s="15"/>
-      <c r="BE34" s="5" t="e" cm="1">
-        <f t="array" ref="BE34">_xlfn.XLOOKUP($B34,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE34" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:57" x14ac:dyDescent="0.45">
@@ -6351,18 +6344,15 @@
       <c r="E35" s="4">
         <v>7600005</v>
       </c>
-      <c r="F35" s="12" t="e" cm="1">
-        <f t="array" ref="F35">_xlfn.XLOOKUP($B35,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F35" s="12">
+        <v>6</v>
       </c>
       <c r="G35" s="15"/>
-      <c r="H35" s="12" t="e" cm="1">
-        <f t="array" ref="H35">_xlfn.XLOOKUP($B35,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I35" s="12" t="e" cm="1">
-        <f t="array" ref="I35">_xlfn.XLOOKUP($B35,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H35" s="12">
+        <v>8</v>
+      </c>
+      <c r="I35" s="12">
+        <v>6</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="17"/>
@@ -6372,30 +6362,25 @@
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="5" t="e" cm="1">
-        <f t="array" ref="R35">_xlfn.XLOOKUP($B35,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R35" s="5">
+        <v>4</v>
       </c>
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
-      <c r="X35" s="5" t="e" cm="1">
-        <f t="array" ref="X35">_xlfn.XLOOKUP($B35,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y35" s="5" t="e" cm="1">
-        <f t="array" ref="Y35">_xlfn.XLOOKUP($B35,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z35" s="5" t="e" cm="1">
-        <f t="array" ref="Z35">_xlfn.XLOOKUP($B35,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA35" s="5" t="e" cm="1">
-        <f t="array" ref="AA35">_xlfn.XLOOKUP($B35,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X35" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>2</v>
       </c>
       <c r="AB35" s="15"/>
       <c r="AC35" s="15"/>
@@ -6426,9 +6411,8 @@
       <c r="BB35" s="15"/>
       <c r="BC35" s="15"/>
       <c r="BD35" s="15"/>
-      <c r="BE35" s="5" t="e" cm="1">
-        <f t="array" ref="BE35">_xlfn.XLOOKUP($B35,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE35" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:57" x14ac:dyDescent="0.45">
@@ -6444,18 +6428,15 @@
       <c r="E36" s="4">
         <v>7600074</v>
       </c>
-      <c r="F36" s="12" t="e" cm="1">
-        <f t="array" ref="F36">_xlfn.XLOOKUP($B36,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F36" s="12">
+        <v>7</v>
       </c>
       <c r="G36" s="15"/>
-      <c r="H36" s="12" t="e" cm="1">
-        <f t="array" ref="H36">_xlfn.XLOOKUP($B36,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I36" s="12" t="e" cm="1">
-        <f t="array" ref="I36">_xlfn.XLOOKUP($B36,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H36" s="12">
+        <v>7</v>
+      </c>
+      <c r="I36" s="12">
+        <v>9</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="17"/>
@@ -6465,30 +6446,25 @@
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
       <c r="Q36" s="17"/>
-      <c r="R36" s="5" t="e" cm="1">
-        <f t="array" ref="R36">_xlfn.XLOOKUP($B36,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R36" s="5">
+        <v>4</v>
       </c>
       <c r="S36" s="15"/>
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
-      <c r="X36" s="5" t="e" cm="1">
-        <f t="array" ref="X36">_xlfn.XLOOKUP($B36,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y36" s="5" t="e" cm="1">
-        <f t="array" ref="Y36">_xlfn.XLOOKUP($B36,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z36" s="5" t="e" cm="1">
-        <f t="array" ref="Z36">_xlfn.XLOOKUP($B36,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA36" s="5" t="e" cm="1">
-        <f t="array" ref="AA36">_xlfn.XLOOKUP($B36,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X36" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>3</v>
       </c>
       <c r="AB36" s="15"/>
       <c r="AC36" s="15"/>
@@ -6519,9 +6495,8 @@
       <c r="BB36" s="15"/>
       <c r="BC36" s="15"/>
       <c r="BD36" s="15"/>
-      <c r="BE36" s="5" t="e" cm="1">
-        <f t="array" ref="BE36">_xlfn.XLOOKUP($B36,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE36" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:57" x14ac:dyDescent="0.45">
@@ -6537,18 +6512,15 @@
       <c r="E37" s="4">
         <v>1060031</v>
       </c>
-      <c r="F37" s="12" t="e" cm="1">
-        <f t="array" ref="F37">_xlfn.XLOOKUP($B37,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F37" s="12">
+        <v>7</v>
       </c>
       <c r="G37" s="15"/>
-      <c r="H37" s="12" t="e" cm="1">
-        <f t="array" ref="H37">_xlfn.XLOOKUP($B37,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I37" s="12" t="e" cm="1">
-        <f t="array" ref="I37">_xlfn.XLOOKUP($B37,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H37" s="12">
+        <v>8</v>
+      </c>
+      <c r="I37" s="12">
+        <v>8</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="17"/>
@@ -6558,30 +6530,25 @@
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
-      <c r="R37" s="5" t="e" cm="1">
-        <f t="array" ref="R37">_xlfn.XLOOKUP($B37,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R37" s="5">
+        <v>5</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
       <c r="W37" s="15"/>
-      <c r="X37" s="5" t="e" cm="1">
-        <f t="array" ref="X37">_xlfn.XLOOKUP($B37,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y37" s="5" t="e" cm="1">
-        <f t="array" ref="Y37">_xlfn.XLOOKUP($B37,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z37" s="5" t="e" cm="1">
-        <f t="array" ref="Z37">_xlfn.XLOOKUP($B37,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA37" s="5" t="e" cm="1">
-        <f t="array" ref="AA37">_xlfn.XLOOKUP($B37,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X37" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>4</v>
       </c>
       <c r="AB37" s="15"/>
       <c r="AC37" s="15"/>
@@ -6612,9 +6579,8 @@
       <c r="BB37" s="15"/>
       <c r="BC37" s="15"/>
       <c r="BD37" s="15"/>
-      <c r="BE37" s="5" t="e" cm="1">
-        <f t="array" ref="BE37">_xlfn.XLOOKUP($B37,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE37" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:57" x14ac:dyDescent="0.45">
@@ -6630,18 +6596,15 @@
       <c r="E38" s="4">
         <v>7618014</v>
       </c>
-      <c r="F38" s="12" t="e" cm="1">
-        <f t="array" ref="F38">_xlfn.XLOOKUP($B38,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F38" s="12">
+        <v>5</v>
       </c>
       <c r="G38" s="15"/>
-      <c r="H38" s="12" t="e" cm="1">
-        <f t="array" ref="H38">_xlfn.XLOOKUP($B38,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I38" s="12" t="e" cm="1">
-        <f t="array" ref="I38">_xlfn.XLOOKUP($B38,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H38" s="12">
+        <v>5</v>
+      </c>
+      <c r="I38" s="12">
+        <v>5</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="17"/>
@@ -6651,30 +6614,25 @@
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
-      <c r="R38" s="5" t="e" cm="1">
-        <f t="array" ref="R38">_xlfn.XLOOKUP($B38,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R38" s="5">
+        <v>3</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="15"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
-      <c r="X38" s="5" t="e" cm="1">
-        <f t="array" ref="X38">_xlfn.XLOOKUP($B38,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y38" s="5" t="e" cm="1">
-        <f t="array" ref="Y38">_xlfn.XLOOKUP($B38,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z38" s="5" t="e" cm="1">
-        <f t="array" ref="Z38">_xlfn.XLOOKUP($B38,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA38" s="5" t="e" cm="1">
-        <f t="array" ref="AA38">_xlfn.XLOOKUP($B38,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X38" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>3</v>
       </c>
       <c r="AB38" s="15"/>
       <c r="AC38" s="15"/>
@@ -6705,9 +6663,8 @@
       <c r="BB38" s="15"/>
       <c r="BC38" s="15"/>
       <c r="BD38" s="15"/>
-      <c r="BE38" s="5" t="e" cm="1">
-        <f t="array" ref="BE38">_xlfn.XLOOKUP($B38,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE38" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:57" x14ac:dyDescent="0.45">
@@ -6723,18 +6680,15 @@
       <c r="E39" s="4">
         <v>7600000</v>
       </c>
-      <c r="F39" s="12" t="e" cm="1">
-        <f t="array" ref="F39">_xlfn.XLOOKUP($B39,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F39" s="12">
+        <v>5</v>
       </c>
       <c r="G39" s="15"/>
-      <c r="H39" s="12" t="e" cm="1">
-        <f t="array" ref="H39">_xlfn.XLOOKUP($B39,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I39" s="12" t="e" cm="1">
-        <f t="array" ref="I39">_xlfn.XLOOKUP($B39,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H39" s="12">
+        <v>5</v>
+      </c>
+      <c r="I39" s="12">
+        <v>5</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="17"/>
@@ -6744,30 +6698,25 @@
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
-      <c r="R39" s="5" t="e" cm="1">
-        <f t="array" ref="R39">_xlfn.XLOOKUP($B39,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R39" s="5">
+        <v>3</v>
       </c>
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
-      <c r="X39" s="5" t="e" cm="1">
-        <f t="array" ref="X39">_xlfn.XLOOKUP($B39,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y39" s="5" t="e" cm="1">
-        <f t="array" ref="Y39">_xlfn.XLOOKUP($B39,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z39" s="5" t="e" cm="1">
-        <f t="array" ref="Z39">_xlfn.XLOOKUP($B39,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA39" s="5" t="e" cm="1">
-        <f t="array" ref="AA39">_xlfn.XLOOKUP($B39,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X39" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>2</v>
       </c>
       <c r="AB39" s="15"/>
       <c r="AC39" s="15"/>
@@ -6798,9 +6747,8 @@
       <c r="BB39" s="15"/>
       <c r="BC39" s="15"/>
       <c r="BD39" s="15"/>
-      <c r="BE39" s="5" t="e" cm="1">
-        <f t="array" ref="BE39">_xlfn.XLOOKUP($B39,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE39" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:57" x14ac:dyDescent="0.45">
@@ -6816,18 +6764,15 @@
       <c r="E40" s="4">
         <v>7611705</v>
       </c>
-      <c r="F40" s="12" t="e" cm="1">
-        <f t="array" ref="F40">_xlfn.XLOOKUP($B40,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F40" s="12">
+        <v>7</v>
       </c>
       <c r="G40" s="15"/>
-      <c r="H40" s="12" t="e" cm="1">
-        <f t="array" ref="H40">_xlfn.XLOOKUP($B40,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I40" s="12" t="e" cm="1">
-        <f t="array" ref="I40">_xlfn.XLOOKUP($B40,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H40" s="12">
+        <v>5</v>
+      </c>
+      <c r="I40" s="12">
+        <v>7</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="17"/>
@@ -6837,30 +6782,25 @@
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
-      <c r="R40" s="5" t="e" cm="1">
-        <f t="array" ref="R40">_xlfn.XLOOKUP($B40,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R40" s="5">
+        <v>4</v>
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="15"/>
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
-      <c r="X40" s="5" t="e" cm="1">
-        <f t="array" ref="X40">_xlfn.XLOOKUP($B40,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y40" s="5" t="e" cm="1">
-        <f t="array" ref="Y40">_xlfn.XLOOKUP($B40,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z40" s="5" t="e" cm="1">
-        <f t="array" ref="Z40">_xlfn.XLOOKUP($B40,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA40" s="5" t="e" cm="1">
-        <f t="array" ref="AA40">_xlfn.XLOOKUP($B40,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X40" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>2</v>
       </c>
       <c r="AB40" s="15"/>
       <c r="AC40" s="15"/>
@@ -6891,9 +6831,8 @@
       <c r="BB40" s="15"/>
       <c r="BC40" s="15"/>
       <c r="BD40" s="15"/>
-      <c r="BE40" s="5" t="e" cm="1">
-        <f t="array" ref="BE40">_xlfn.XLOOKUP($B40,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE40" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:57" x14ac:dyDescent="0.45">
@@ -6909,18 +6848,15 @@
       <c r="E41" s="4">
         <v>7610702</v>
       </c>
-      <c r="F41" s="12" t="e" cm="1">
-        <f t="array" ref="F41">_xlfn.XLOOKUP($B41,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F41" s="12">
+        <v>8</v>
       </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="12" t="e" cm="1">
-        <f t="array" ref="H41">_xlfn.XLOOKUP($B41,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I41" s="12" t="e" cm="1">
-        <f t="array" ref="I41">_xlfn.XLOOKUP($B41,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H41" s="12">
+        <v>8</v>
+      </c>
+      <c r="I41" s="12">
+        <v>7</v>
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="17"/>
@@ -6930,30 +6866,25 @@
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
-      <c r="R41" s="5" t="e" cm="1">
-        <f t="array" ref="R41">_xlfn.XLOOKUP($B41,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R41" s="5">
+        <v>2</v>
       </c>
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
       <c r="U41" s="15"/>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
-      <c r="X41" s="5" t="e" cm="1">
-        <f t="array" ref="X41">_xlfn.XLOOKUP($B41,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y41" s="5" t="e" cm="1">
-        <f t="array" ref="Y41">_xlfn.XLOOKUP($B41,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z41" s="5" t="e" cm="1">
-        <f t="array" ref="Z41">_xlfn.XLOOKUP($B41,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA41" s="5" t="e" cm="1">
-        <f t="array" ref="AA41">_xlfn.XLOOKUP($B41,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X41" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>3</v>
       </c>
       <c r="AB41" s="15"/>
       <c r="AC41" s="15"/>
@@ -6984,9 +6915,8 @@
       <c r="BB41" s="15"/>
       <c r="BC41" s="15"/>
       <c r="BD41" s="15"/>
-      <c r="BE41" s="5" t="e" cm="1">
-        <f t="array" ref="BE41">_xlfn.XLOOKUP($B41,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE41" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:57" x14ac:dyDescent="0.45">
@@ -7002,18 +6932,15 @@
       <c r="E42" s="4">
         <v>7618084</v>
       </c>
-      <c r="F42" s="12" t="e" cm="1">
-        <f t="array" ref="F42">_xlfn.XLOOKUP($B42,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F42" s="12">
+        <v>8</v>
       </c>
       <c r="G42" s="15"/>
-      <c r="H42" s="12" t="e" cm="1">
-        <f t="array" ref="H42">_xlfn.XLOOKUP($B42,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I42" s="12" t="e" cm="1">
-        <f t="array" ref="I42">_xlfn.XLOOKUP($B42,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H42" s="12">
+        <v>3</v>
+      </c>
+      <c r="I42" s="12">
+        <v>4</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="17"/>
@@ -7023,30 +6950,25 @@
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
-      <c r="R42" s="5" t="e" cm="1">
-        <f t="array" ref="R42">_xlfn.XLOOKUP($B42,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R42" s="5">
+        <v>1</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="15"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
-      <c r="X42" s="5" t="e" cm="1">
-        <f t="array" ref="X42">_xlfn.XLOOKUP($B42,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y42" s="5" t="e" cm="1">
-        <f t="array" ref="Y42">_xlfn.XLOOKUP($B42,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z42" s="5" t="e" cm="1">
-        <f t="array" ref="Z42">_xlfn.XLOOKUP($B42,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA42" s="5" t="e" cm="1">
-        <f t="array" ref="AA42">_xlfn.XLOOKUP($B42,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="5">
+        <v>2</v>
       </c>
       <c r="AB42" s="15"/>
       <c r="AC42" s="15"/>
@@ -7077,9 +6999,8 @@
       <c r="BB42" s="15"/>
       <c r="BC42" s="15"/>
       <c r="BD42" s="15"/>
-      <c r="BE42" s="5" t="e" cm="1">
-        <f t="array" ref="BE42">_xlfn.XLOOKUP($B42,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE42" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:57" x14ac:dyDescent="0.45">
@@ -7095,18 +7016,15 @@
       <c r="E43" s="4">
         <v>7618051</v>
       </c>
-      <c r="F43" s="12" t="e" cm="1">
-        <f t="array" ref="F43">_xlfn.XLOOKUP($B43,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F43" s="12">
+        <v>5</v>
       </c>
       <c r="G43" s="15"/>
-      <c r="H43" s="12" t="e" cm="1">
-        <f t="array" ref="H43">_xlfn.XLOOKUP($B43,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I43" s="12" t="e" cm="1">
-        <f t="array" ref="I43">_xlfn.XLOOKUP($B43,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H43" s="12">
+        <v>7</v>
+      </c>
+      <c r="I43" s="12">
+        <v>5</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="17"/>
@@ -7116,30 +7034,25 @@
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
-      <c r="R43" s="5" t="e" cm="1">
-        <f t="array" ref="R43">_xlfn.XLOOKUP($B43,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R43" s="5">
+        <v>2</v>
       </c>
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
-      <c r="X43" s="5" t="e" cm="1">
-        <f t="array" ref="X43">_xlfn.XLOOKUP($B43,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y43" s="5" t="e" cm="1">
-        <f t="array" ref="Y43">_xlfn.XLOOKUP($B43,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z43" s="5" t="e" cm="1">
-        <f t="array" ref="Z43">_xlfn.XLOOKUP($B43,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA43" s="5" t="e" cm="1">
-        <f t="array" ref="AA43">_xlfn.XLOOKUP($B43,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X43" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>4</v>
       </c>
       <c r="AB43" s="15"/>
       <c r="AC43" s="15"/>
@@ -7170,9 +7083,8 @@
       <c r="BB43" s="15"/>
       <c r="BC43" s="15"/>
       <c r="BD43" s="15"/>
-      <c r="BE43" s="5" t="e" cm="1">
-        <f t="array" ref="BE43">_xlfn.XLOOKUP($B43,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE43" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:57" x14ac:dyDescent="0.45">
@@ -7188,18 +7100,15 @@
       <c r="E44" s="4">
         <v>7600080</v>
       </c>
-      <c r="F44" s="12" t="e" cm="1">
-        <f t="array" ref="F44">_xlfn.XLOOKUP($B44,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F44" s="12">
+        <v>8</v>
       </c>
       <c r="G44" s="15"/>
-      <c r="H44" s="12" t="e" cm="1">
-        <f t="array" ref="H44">_xlfn.XLOOKUP($B44,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I44" s="12" t="e" cm="1">
-        <f t="array" ref="I44">_xlfn.XLOOKUP($B44,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H44" s="12">
+        <v>8</v>
+      </c>
+      <c r="I44" s="12">
+        <v>7</v>
       </c>
       <c r="J44" s="15"/>
       <c r="K44" s="17"/>
@@ -7209,30 +7118,25 @@
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
-      <c r="R44" s="5" t="e" cm="1">
-        <f t="array" ref="R44">_xlfn.XLOOKUP($B44,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R44" s="5">
+        <v>2</v>
       </c>
       <c r="S44" s="15"/>
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
-      <c r="X44" s="5" t="e" cm="1">
-        <f t="array" ref="X44">_xlfn.XLOOKUP($B44,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y44" s="5" t="e" cm="1">
-        <f t="array" ref="Y44">_xlfn.XLOOKUP($B44,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z44" s="5" t="e" cm="1">
-        <f t="array" ref="Z44">_xlfn.XLOOKUP($B44,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA44" s="5" t="e" cm="1">
-        <f t="array" ref="AA44">_xlfn.XLOOKUP($B44,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X44" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="5">
+        <v>3</v>
       </c>
       <c r="AB44" s="15"/>
       <c r="AC44" s="15"/>
@@ -7263,9 +7167,8 @@
       <c r="BB44" s="15"/>
       <c r="BC44" s="15"/>
       <c r="BD44" s="15"/>
-      <c r="BE44" s="5" t="e" cm="1">
-        <f t="array" ref="BE44">_xlfn.XLOOKUP($B44,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE44" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:57" x14ac:dyDescent="0.45">
@@ -7281,18 +7184,15 @@
       <c r="E45" s="4">
         <v>7600013</v>
       </c>
-      <c r="F45" s="12" t="e" cm="1">
-        <f t="array" ref="F45">_xlfn.XLOOKUP($B45,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F45" s="12">
+        <v>9</v>
       </c>
       <c r="G45" s="15"/>
-      <c r="H45" s="12" t="e" cm="1">
-        <f t="array" ref="H45">_xlfn.XLOOKUP($B45,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I45" s="12" t="e" cm="1">
-        <f t="array" ref="I45">_xlfn.XLOOKUP($B45,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H45" s="12">
+        <v>8</v>
+      </c>
+      <c r="I45" s="12">
+        <v>8</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="17"/>
@@ -7302,30 +7202,25 @@
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
-      <c r="R45" s="5" t="e" cm="1">
-        <f t="array" ref="R45">_xlfn.XLOOKUP($B45,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R45" s="5">
+        <v>4</v>
       </c>
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
-      <c r="X45" s="5" t="e" cm="1">
-        <f t="array" ref="X45">_xlfn.XLOOKUP($B45,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y45" s="5" t="e" cm="1">
-        <f t="array" ref="Y45">_xlfn.XLOOKUP($B45,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z45" s="5" t="e" cm="1">
-        <f t="array" ref="Z45">_xlfn.XLOOKUP($B45,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA45" s="5" t="e" cm="1">
-        <f t="array" ref="AA45">_xlfn.XLOOKUP($B45,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X45" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>3</v>
       </c>
       <c r="AB45" s="15"/>
       <c r="AC45" s="15"/>
@@ -7356,9 +7251,8 @@
       <c r="BB45" s="15"/>
       <c r="BC45" s="15"/>
       <c r="BD45" s="15"/>
-      <c r="BE45" s="5" t="e" cm="1">
-        <f t="array" ref="BE45">_xlfn.XLOOKUP($B45,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE45" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:57" x14ac:dyDescent="0.45">
@@ -7374,18 +7268,15 @@
       <c r="E46" s="4">
         <v>7618077</v>
       </c>
-      <c r="F46" s="12" t="e" cm="1">
-        <f t="array" ref="F46">_xlfn.XLOOKUP($B46,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F46" s="12">
+        <v>7</v>
       </c>
       <c r="G46" s="15"/>
-      <c r="H46" s="12" t="e" cm="1">
-        <f t="array" ref="H46">_xlfn.XLOOKUP($B46,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I46" s="12" t="e" cm="1">
-        <f t="array" ref="I46">_xlfn.XLOOKUP($B46,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H46" s="12">
+        <v>6</v>
+      </c>
+      <c r="I46" s="12">
+        <v>6</v>
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="17"/>
@@ -7395,30 +7286,25 @@
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
       <c r="Q46" s="17"/>
-      <c r="R46" s="5" t="e" cm="1">
-        <f t="array" ref="R46">_xlfn.XLOOKUP($B46,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R46" s="5">
+        <v>2</v>
       </c>
       <c r="S46" s="15"/>
       <c r="T46" s="15"/>
       <c r="U46" s="15"/>
       <c r="V46" s="15"/>
       <c r="W46" s="15"/>
-      <c r="X46" s="5" t="e" cm="1">
-        <f t="array" ref="X46">_xlfn.XLOOKUP($B46,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y46" s="5" t="e" cm="1">
-        <f t="array" ref="Y46">_xlfn.XLOOKUP($B46,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z46" s="5" t="e" cm="1">
-        <f t="array" ref="Z46">_xlfn.XLOOKUP($B46,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA46" s="5" t="e" cm="1">
-        <f t="array" ref="AA46">_xlfn.XLOOKUP($B46,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X46" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA46" s="5">
+        <v>3</v>
       </c>
       <c r="AB46" s="15"/>
       <c r="AC46" s="15"/>
@@ -7449,9 +7335,8 @@
       <c r="BB46" s="15"/>
       <c r="BC46" s="15"/>
       <c r="BD46" s="15"/>
-      <c r="BE46" s="5" t="e" cm="1">
-        <f t="array" ref="BE46">_xlfn.XLOOKUP($B46,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE46" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:57" x14ac:dyDescent="0.45">
@@ -7467,18 +7352,15 @@
       <c r="E47" s="4">
         <v>7600011</v>
       </c>
-      <c r="F47" s="12" t="e" cm="1">
-        <f t="array" ref="F47">_xlfn.XLOOKUP($B47,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F47" s="12">
+        <v>8</v>
       </c>
       <c r="G47" s="15"/>
-      <c r="H47" s="12" t="e" cm="1">
-        <f t="array" ref="H47">_xlfn.XLOOKUP($B47,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I47" s="12" t="e" cm="1">
-        <f t="array" ref="I47">_xlfn.XLOOKUP($B47,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H47" s="12">
+        <v>8</v>
+      </c>
+      <c r="I47" s="12">
+        <v>8</v>
       </c>
       <c r="J47" s="15"/>
       <c r="K47" s="17"/>
@@ -7488,30 +7370,25 @@
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="17"/>
-      <c r="R47" s="5" t="e" cm="1">
-        <f t="array" ref="R47">_xlfn.XLOOKUP($B47,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R47" s="5">
+        <v>4</v>
       </c>
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
       <c r="U47" s="15"/>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
-      <c r="X47" s="5" t="e" cm="1">
-        <f t="array" ref="X47">_xlfn.XLOOKUP($B47,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y47" s="5" t="e" cm="1">
-        <f t="array" ref="Y47">_xlfn.XLOOKUP($B47,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z47" s="5" t="e" cm="1">
-        <f t="array" ref="Z47">_xlfn.XLOOKUP($B47,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA47" s="5" t="e" cm="1">
-        <f t="array" ref="AA47">_xlfn.XLOOKUP($B47,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X47" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA47" s="5">
+        <v>3</v>
       </c>
       <c r="AB47" s="15"/>
       <c r="AC47" s="15"/>
@@ -7542,9 +7419,8 @@
       <c r="BB47" s="15"/>
       <c r="BC47" s="15"/>
       <c r="BD47" s="15"/>
-      <c r="BE47" s="5" t="e" cm="1">
-        <f t="array" ref="BE47">_xlfn.XLOOKUP($B47,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE47" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:57" x14ac:dyDescent="0.45">
@@ -7560,18 +7436,15 @@
       <c r="E48" s="4">
         <v>7600004</v>
       </c>
-      <c r="F48" s="12" t="e" cm="1">
-        <f t="array" ref="F48">_xlfn.XLOOKUP($B48,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F48" s="12">
+        <v>2</v>
       </c>
       <c r="G48" s="15"/>
-      <c r="H48" s="12" t="e" cm="1">
-        <f t="array" ref="H48">_xlfn.XLOOKUP($B48,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I48" s="12" t="e" cm="1">
-        <f t="array" ref="I48">_xlfn.XLOOKUP($B48,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H48" s="12">
+        <v>1</v>
+      </c>
+      <c r="I48" s="12">
+        <v>3</v>
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="17"/>
@@ -7581,30 +7454,25 @@
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="17"/>
-      <c r="R48" s="5" t="e" cm="1">
-        <f t="array" ref="R48">_xlfn.XLOOKUP($B48,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R48" s="5">
+        <v>1</v>
       </c>
       <c r="S48" s="15"/>
       <c r="T48" s="15"/>
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="5" t="e" cm="1">
-        <f t="array" ref="X48">_xlfn.XLOOKUP($B48,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y48" s="5" t="e" cm="1">
-        <f t="array" ref="Y48">_xlfn.XLOOKUP($B48,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z48" s="5" t="e" cm="1">
-        <f t="array" ref="Z48">_xlfn.XLOOKUP($B48,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA48" s="5" t="e" cm="1">
-        <f t="array" ref="AA48">_xlfn.XLOOKUP($B48,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X48" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="5">
+        <v>1</v>
       </c>
       <c r="AB48" s="15"/>
       <c r="AC48" s="15"/>
@@ -7635,9 +7503,8 @@
       <c r="BB48" s="15"/>
       <c r="BC48" s="15"/>
       <c r="BD48" s="15"/>
-      <c r="BE48" s="5" t="e" cm="1">
-        <f t="array" ref="BE48">_xlfn.XLOOKUP($B48,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE48" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:57" x14ac:dyDescent="0.45">
@@ -7653,18 +7520,15 @@
       <c r="E49" s="4">
         <v>7610301</v>
       </c>
-      <c r="F49" s="12" t="e" cm="1">
-        <f t="array" ref="F49">_xlfn.XLOOKUP($B49,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F49" s="12">
+        <v>5</v>
       </c>
       <c r="G49" s="15"/>
-      <c r="H49" s="12" t="e" cm="1">
-        <f t="array" ref="H49">_xlfn.XLOOKUP($B49,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I49" s="12" t="e" cm="1">
-        <f t="array" ref="I49">_xlfn.XLOOKUP($B49,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H49" s="12">
+        <v>6</v>
+      </c>
+      <c r="I49" s="12">
+        <v>5</v>
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="17"/>
@@ -7674,30 +7538,25 @@
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
-      <c r="R49" s="5" t="e" cm="1">
-        <f t="array" ref="R49">_xlfn.XLOOKUP($B49,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R49" s="5">
+        <v>4</v>
       </c>
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
-      <c r="X49" s="5" t="e" cm="1">
-        <f t="array" ref="X49">_xlfn.XLOOKUP($B49,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y49" s="5" t="e" cm="1">
-        <f t="array" ref="Y49">_xlfn.XLOOKUP($B49,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z49" s="5" t="e" cm="1">
-        <f t="array" ref="Z49">_xlfn.XLOOKUP($B49,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA49" s="5" t="e" cm="1">
-        <f t="array" ref="AA49">_xlfn.XLOOKUP($B49,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X49" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>3</v>
       </c>
       <c r="AB49" s="15"/>
       <c r="AC49" s="15"/>
@@ -7728,9 +7587,8 @@
       <c r="BB49" s="15"/>
       <c r="BC49" s="15"/>
       <c r="BD49" s="15"/>
-      <c r="BE49" s="5" t="e" cm="1">
-        <f t="array" ref="BE49">_xlfn.XLOOKUP($B49,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE49" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:57" x14ac:dyDescent="0.45">
@@ -7746,18 +7604,15 @@
       <c r="E50" s="4">
         <v>7618053</v>
       </c>
-      <c r="F50" s="12" t="e" cm="1">
-        <f t="array" ref="F50">_xlfn.XLOOKUP($B50,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F50" s="12">
+        <v>6</v>
       </c>
       <c r="G50" s="15"/>
-      <c r="H50" s="12" t="e" cm="1">
-        <f t="array" ref="H50">_xlfn.XLOOKUP($B50,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I50" s="12" t="e" cm="1">
-        <f t="array" ref="I50">_xlfn.XLOOKUP($B50,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H50" s="12">
+        <v>6</v>
+      </c>
+      <c r="I50" s="12">
+        <v>5</v>
       </c>
       <c r="J50" s="15"/>
       <c r="K50" s="17"/>
@@ -7767,30 +7622,25 @@
       <c r="O50" s="17"/>
       <c r="P50" s="17"/>
       <c r="Q50" s="17"/>
-      <c r="R50" s="5" t="e" cm="1">
-        <f t="array" ref="R50">_xlfn.XLOOKUP($B50,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R50" s="5">
+        <v>2</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="15"/>
       <c r="U50" s="15"/>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
-      <c r="X50" s="5" t="e" cm="1">
-        <f t="array" ref="X50">_xlfn.XLOOKUP($B50,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y50" s="5" t="e" cm="1">
-        <f t="array" ref="Y50">_xlfn.XLOOKUP($B50,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z50" s="5" t="e" cm="1">
-        <f t="array" ref="Z50">_xlfn.XLOOKUP($B50,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA50" s="5" t="e" cm="1">
-        <f t="array" ref="AA50">_xlfn.XLOOKUP($B50,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X50" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>3</v>
       </c>
       <c r="AB50" s="15"/>
       <c r="AC50" s="15"/>
@@ -7821,9 +7671,8 @@
       <c r="BB50" s="15"/>
       <c r="BC50" s="15"/>
       <c r="BD50" s="15"/>
-      <c r="BE50" s="5" t="e" cm="1">
-        <f t="array" ref="BE50">_xlfn.XLOOKUP($B50,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE50" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:57" x14ac:dyDescent="0.45">
@@ -7839,18 +7688,15 @@
       <c r="E51" s="4">
         <v>7618062</v>
       </c>
-      <c r="F51" s="12" t="e" cm="1">
-        <f t="array" ref="F51">_xlfn.XLOOKUP($B51,#REF!,_xlfn.XLOOKUP(回答データ!F$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="F51" s="12">
+        <v>8</v>
       </c>
       <c r="G51" s="15"/>
-      <c r="H51" s="12" t="e" cm="1">
-        <f t="array" ref="H51">_xlfn.XLOOKUP($B51,#REF!,_xlfn.XLOOKUP(回答データ!H$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I51" s="12" t="e" cm="1">
-        <f t="array" ref="I51">_xlfn.XLOOKUP($B51,#REF!,_xlfn.XLOOKUP(回答データ!I$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="H51" s="12">
+        <v>5</v>
+      </c>
+      <c r="I51" s="12">
+        <v>5</v>
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="17"/>
@@ -7860,30 +7706,25 @@
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="17"/>
-      <c r="R51" s="5" t="e" cm="1">
-        <f t="array" ref="R51">_xlfn.XLOOKUP($B51,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R51" s="5">
+        <v>3</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
       <c r="U51" s="15"/>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
-      <c r="X51" s="5" t="e" cm="1">
-        <f t="array" ref="X51">_xlfn.XLOOKUP($B51,#REF!,_xlfn.XLOOKUP(回答データ!X$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y51" s="5" t="e" cm="1">
-        <f t="array" ref="Y51">_xlfn.XLOOKUP($B51,#REF!,_xlfn.XLOOKUP(回答データ!Y$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z51" s="5" t="e" cm="1">
-        <f t="array" ref="Z51">_xlfn.XLOOKUP($B51,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA51" s="5" t="e" cm="1">
-        <f t="array" ref="AA51">_xlfn.XLOOKUP($B51,#REF!,_xlfn.XLOOKUP(回答データ!AA$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="X51" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>4</v>
       </c>
       <c r="AB51" s="15"/>
       <c r="AC51" s="15"/>
@@ -7914,9 +7755,8 @@
       <c r="BB51" s="15"/>
       <c r="BC51" s="15"/>
       <c r="BD51" s="15"/>
-      <c r="BE51" s="5" t="e" cm="1">
-        <f t="array" ref="BE51">_xlfn.XLOOKUP($B51,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE51" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:57" x14ac:dyDescent="0.45">
@@ -7938,9 +7778,8 @@
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
-      <c r="R52" s="5" t="e" cm="1">
-        <f t="array" ref="R52">_xlfn.XLOOKUP($B52,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R52" s="5">
+        <v>5</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="15"/>
@@ -7949,9 +7788,8 @@
       <c r="W52" s="15"/>
       <c r="X52" s="15"/>
       <c r="Y52" s="15"/>
-      <c r="Z52" s="5" t="e" cm="1">
-        <f t="array" ref="Z52">_xlfn.XLOOKUP($B52,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z52" s="5">
+        <v>3</v>
       </c>
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
@@ -7983,9 +7821,8 @@
       <c r="BB52" s="15"/>
       <c r="BC52" s="15"/>
       <c r="BD52" s="15"/>
-      <c r="BE52" s="11" t="e" cm="1">
-        <f t="array" ref="BE52">_xlfn.XLOOKUP($B52,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE52" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:57" x14ac:dyDescent="0.45">
@@ -8007,9 +7844,8 @@
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
-      <c r="R53" s="5" t="e" cm="1">
-        <f t="array" ref="R53">_xlfn.XLOOKUP($B53,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R53" s="5">
+        <v>4</v>
       </c>
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
@@ -8018,9 +7854,8 @@
       <c r="W53" s="15"/>
       <c r="X53" s="15"/>
       <c r="Y53" s="15"/>
-      <c r="Z53" s="5" t="e" cm="1">
-        <f t="array" ref="Z53">_xlfn.XLOOKUP($B53,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z53" s="5">
+        <v>3</v>
       </c>
       <c r="AA53" s="15"/>
       <c r="AB53" s="15"/>
@@ -8052,9 +7887,8 @@
       <c r="BB53" s="15"/>
       <c r="BC53" s="15"/>
       <c r="BD53" s="15"/>
-      <c r="BE53" s="11" t="e" cm="1">
-        <f t="array" ref="BE53">_xlfn.XLOOKUP($B53,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE53" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:57" x14ac:dyDescent="0.45">
@@ -8076,9 +7910,8 @@
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
-      <c r="R54" s="5" t="e" cm="1">
-        <f t="array" ref="R54">_xlfn.XLOOKUP($B54,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R54" s="5">
+        <v>3</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="15"/>
@@ -8087,9 +7920,8 @@
       <c r="W54" s="15"/>
       <c r="X54" s="15"/>
       <c r="Y54" s="15"/>
-      <c r="Z54" s="5" t="e" cm="1">
-        <f t="array" ref="Z54">_xlfn.XLOOKUP($B54,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z54" s="5">
+        <v>3</v>
       </c>
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
@@ -8121,9 +7953,8 @@
       <c r="BB54" s="15"/>
       <c r="BC54" s="15"/>
       <c r="BD54" s="15"/>
-      <c r="BE54" s="11" t="e" cm="1">
-        <f t="array" ref="BE54">_xlfn.XLOOKUP($B54,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE54" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:57" x14ac:dyDescent="0.45">
@@ -8145,9 +7976,8 @@
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
-      <c r="R55" s="5" t="e" cm="1">
-        <f t="array" ref="R55">_xlfn.XLOOKUP($B55,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R55" s="5">
+        <v>3</v>
       </c>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
@@ -8156,9 +7986,8 @@
       <c r="W55" s="15"/>
       <c r="X55" s="15"/>
       <c r="Y55" s="15"/>
-      <c r="Z55" s="5" t="e" cm="1">
-        <f t="array" ref="Z55">_xlfn.XLOOKUP($B55,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z55" s="5">
+        <v>3</v>
       </c>
       <c r="AA55" s="15"/>
       <c r="AB55" s="15"/>
@@ -8190,9 +8019,8 @@
       <c r="BB55" s="15"/>
       <c r="BC55" s="15"/>
       <c r="BD55" s="15"/>
-      <c r="BE55" s="11" t="e" cm="1">
-        <f t="array" ref="BE55">_xlfn.XLOOKUP($B55,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE55" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:57" x14ac:dyDescent="0.45">
@@ -8214,9 +8042,8 @@
       <c r="O56" s="15"/>
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
-      <c r="R56" s="5" t="e" cm="1">
-        <f t="array" ref="R56">_xlfn.XLOOKUP($B56,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R56" s="5">
+        <v>3</v>
       </c>
       <c r="S56" s="15"/>
       <c r="T56" s="15"/>
@@ -8225,9 +8052,8 @@
       <c r="W56" s="15"/>
       <c r="X56" s="15"/>
       <c r="Y56" s="15"/>
-      <c r="Z56" s="5" t="e" cm="1">
-        <f t="array" ref="Z56">_xlfn.XLOOKUP($B56,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z56" s="5">
+        <v>3</v>
       </c>
       <c r="AA56" s="15"/>
       <c r="AB56" s="15"/>
@@ -8259,9 +8085,8 @@
       <c r="BB56" s="15"/>
       <c r="BC56" s="15"/>
       <c r="BD56" s="15"/>
-      <c r="BE56" s="11" t="e" cm="1">
-        <f t="array" ref="BE56">_xlfn.XLOOKUP($B56,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE56" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:57" x14ac:dyDescent="0.45">
@@ -8283,9 +8108,8 @@
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
-      <c r="R57" s="5" t="e" cm="1">
-        <f t="array" ref="R57">_xlfn.XLOOKUP($B57,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R57" s="5">
+        <v>3</v>
       </c>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -8294,9 +8118,8 @@
       <c r="W57" s="15"/>
       <c r="X57" s="15"/>
       <c r="Y57" s="15"/>
-      <c r="Z57" s="5" t="e" cm="1">
-        <f t="array" ref="Z57">_xlfn.XLOOKUP($B57,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z57" s="5">
+        <v>3</v>
       </c>
       <c r="AA57" s="15"/>
       <c r="AB57" s="15"/>
@@ -8328,9 +8151,8 @@
       <c r="BB57" s="15"/>
       <c r="BC57" s="15"/>
       <c r="BD57" s="15"/>
-      <c r="BE57" s="11" t="e" cm="1">
-        <f t="array" ref="BE57">_xlfn.XLOOKUP($B57,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE57" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:57" x14ac:dyDescent="0.45">
@@ -8352,9 +8174,8 @@
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
-      <c r="R58" s="5" t="e" cm="1">
-        <f t="array" ref="R58">_xlfn.XLOOKUP($B58,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R58" s="5">
+        <v>3</v>
       </c>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
@@ -8363,9 +8184,8 @@
       <c r="W58" s="15"/>
       <c r="X58" s="15"/>
       <c r="Y58" s="15"/>
-      <c r="Z58" s="5" t="e" cm="1">
-        <f t="array" ref="Z58">_xlfn.XLOOKUP($B58,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z58" s="5">
+        <v>3</v>
       </c>
       <c r="AA58" s="15"/>
       <c r="AB58" s="15"/>
@@ -8397,9 +8217,8 @@
       <c r="BB58" s="15"/>
       <c r="BC58" s="15"/>
       <c r="BD58" s="15"/>
-      <c r="BE58" s="11" t="e" cm="1">
-        <f t="array" ref="BE58">_xlfn.XLOOKUP($B58,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE58" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:57" x14ac:dyDescent="0.45">
@@ -8421,9 +8240,8 @@
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
-      <c r="R59" s="5" t="e" cm="1">
-        <f t="array" ref="R59">_xlfn.XLOOKUP($B59,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R59" s="5">
+        <v>2</v>
       </c>
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
@@ -8432,9 +8250,8 @@
       <c r="W59" s="15"/>
       <c r="X59" s="15"/>
       <c r="Y59" s="15"/>
-      <c r="Z59" s="5" t="e" cm="1">
-        <f t="array" ref="Z59">_xlfn.XLOOKUP($B59,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z59" s="5">
+        <v>3</v>
       </c>
       <c r="AA59" s="15"/>
       <c r="AB59" s="15"/>
@@ -8466,9 +8283,8 @@
       <c r="BB59" s="15"/>
       <c r="BC59" s="15"/>
       <c r="BD59" s="15"/>
-      <c r="BE59" s="11" t="e" cm="1">
-        <f t="array" ref="BE59">_xlfn.XLOOKUP($B59,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE59" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="2:57" x14ac:dyDescent="0.45">
@@ -8490,9 +8306,8 @@
       <c r="O60" s="15"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
-      <c r="R60" s="5" t="e" cm="1">
-        <f t="array" ref="R60">_xlfn.XLOOKUP($B60,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R60" s="5">
+        <v>2</v>
       </c>
       <c r="S60" s="15"/>
       <c r="T60" s="15"/>
@@ -8501,9 +8316,8 @@
       <c r="W60" s="15"/>
       <c r="X60" s="15"/>
       <c r="Y60" s="15"/>
-      <c r="Z60" s="5" t="e" cm="1">
-        <f t="array" ref="Z60">_xlfn.XLOOKUP($B60,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z60" s="5">
+        <v>2</v>
       </c>
       <c r="AA60" s="15"/>
       <c r="AB60" s="15"/>
@@ -8535,9 +8349,8 @@
       <c r="BB60" s="15"/>
       <c r="BC60" s="15"/>
       <c r="BD60" s="15"/>
-      <c r="BE60" s="11" t="e" cm="1">
-        <f t="array" ref="BE60">_xlfn.XLOOKUP($B60,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE60" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="2:57" x14ac:dyDescent="0.45">
@@ -8559,9 +8372,8 @@
       <c r="O61" s="15"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
-      <c r="R61" s="5" t="e" cm="1">
-        <f t="array" ref="R61">_xlfn.XLOOKUP($B61,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R61" s="5">
+        <v>2</v>
       </c>
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
@@ -8570,9 +8382,8 @@
       <c r="W61" s="15"/>
       <c r="X61" s="15"/>
       <c r="Y61" s="15"/>
-      <c r="Z61" s="5" t="e" cm="1">
-        <f t="array" ref="Z61">_xlfn.XLOOKUP($B61,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z61" s="5">
+        <v>2</v>
       </c>
       <c r="AA61" s="15"/>
       <c r="AB61" s="15"/>
@@ -8604,9 +8415,8 @@
       <c r="BB61" s="15"/>
       <c r="BC61" s="15"/>
       <c r="BD61" s="15"/>
-      <c r="BE61" s="11" t="e" cm="1">
-        <f t="array" ref="BE61">_xlfn.XLOOKUP($B61,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE61" s="11">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:57" x14ac:dyDescent="0.45">
@@ -8628,9 +8438,8 @@
       <c r="O62" s="15"/>
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
-      <c r="R62" s="5" t="e" cm="1">
-        <f t="array" ref="R62">_xlfn.XLOOKUP($B62,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R62" s="5">
+        <v>2</v>
       </c>
       <c r="S62" s="15"/>
       <c r="T62" s="15"/>
@@ -8639,9 +8448,8 @@
       <c r="W62" s="15"/>
       <c r="X62" s="15"/>
       <c r="Y62" s="15"/>
-      <c r="Z62" s="5" t="e" cm="1">
-        <f t="array" ref="Z62">_xlfn.XLOOKUP($B62,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z62" s="5">
+        <v>2</v>
       </c>
       <c r="AA62" s="15"/>
       <c r="AB62" s="15"/>
@@ -8673,9 +8481,8 @@
       <c r="BB62" s="15"/>
       <c r="BC62" s="15"/>
       <c r="BD62" s="15"/>
-      <c r="BE62" s="11" t="e" cm="1">
-        <f t="array" ref="BE62">_xlfn.XLOOKUP($B62,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE62" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="2:57" x14ac:dyDescent="0.45">
@@ -8697,9 +8504,8 @@
       <c r="O63" s="15"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
-      <c r="R63" s="5" t="e" cm="1">
-        <f t="array" ref="R63">_xlfn.XLOOKUP($B63,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R63" s="5">
+        <v>2</v>
       </c>
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
@@ -8708,9 +8514,8 @@
       <c r="W63" s="15"/>
       <c r="X63" s="15"/>
       <c r="Y63" s="15"/>
-      <c r="Z63" s="5" t="e" cm="1">
-        <f t="array" ref="Z63">_xlfn.XLOOKUP($B63,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z63" s="5">
+        <v>2</v>
       </c>
       <c r="AA63" s="15"/>
       <c r="AB63" s="15"/>
@@ -8742,9 +8547,8 @@
       <c r="BB63" s="15"/>
       <c r="BC63" s="15"/>
       <c r="BD63" s="15"/>
-      <c r="BE63" s="11" t="e" cm="1">
-        <f t="array" ref="BE63">_xlfn.XLOOKUP($B63,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE63" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="2:57" x14ac:dyDescent="0.45">
@@ -8766,9 +8570,8 @@
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
-      <c r="R64" s="5" t="e" cm="1">
-        <f t="array" ref="R64">_xlfn.XLOOKUP($B64,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R64" s="5">
+        <v>2</v>
       </c>
       <c r="S64" s="15"/>
       <c r="T64" s="15"/>
@@ -8777,9 +8580,8 @@
       <c r="W64" s="15"/>
       <c r="X64" s="15"/>
       <c r="Y64" s="15"/>
-      <c r="Z64" s="5" t="e" cm="1">
-        <f t="array" ref="Z64">_xlfn.XLOOKUP($B64,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z64" s="5">
+        <v>2</v>
       </c>
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
@@ -8811,9 +8613,8 @@
       <c r="BB64" s="15"/>
       <c r="BC64" s="15"/>
       <c r="BD64" s="15"/>
-      <c r="BE64" s="11" t="e" cm="1">
-        <f t="array" ref="BE64">_xlfn.XLOOKUP($B64,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE64" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:57" x14ac:dyDescent="0.45">
@@ -8835,9 +8636,8 @@
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
-      <c r="R65" s="5" t="e" cm="1">
-        <f t="array" ref="R65">_xlfn.XLOOKUP($B65,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R65" s="5">
+        <v>2</v>
       </c>
       <c r="S65" s="15"/>
       <c r="T65" s="15"/>
@@ -8846,9 +8646,8 @@
       <c r="W65" s="15"/>
       <c r="X65" s="15"/>
       <c r="Y65" s="15"/>
-      <c r="Z65" s="5" t="e" cm="1">
-        <f t="array" ref="Z65">_xlfn.XLOOKUP($B65,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z65" s="5">
+        <v>2</v>
       </c>
       <c r="AA65" s="15"/>
       <c r="AB65" s="15"/>
@@ -8880,9 +8679,8 @@
       <c r="BB65" s="15"/>
       <c r="BC65" s="15"/>
       <c r="BD65" s="15"/>
-      <c r="BE65" s="11" t="e" cm="1">
-        <f t="array" ref="BE65">_xlfn.XLOOKUP($B65,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE65" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="2:57" x14ac:dyDescent="0.45">
@@ -8904,9 +8702,8 @@
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
-      <c r="R66" s="5" t="e" cm="1">
-        <f t="array" ref="R66">_xlfn.XLOOKUP($B66,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R66" s="5">
+        <v>2</v>
       </c>
       <c r="S66" s="15"/>
       <c r="T66" s="15"/>
@@ -8915,9 +8712,8 @@
       <c r="W66" s="15"/>
       <c r="X66" s="15"/>
       <c r="Y66" s="15"/>
-      <c r="Z66" s="5" t="e" cm="1">
-        <f t="array" ref="Z66">_xlfn.XLOOKUP($B66,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z66" s="5">
+        <v>2</v>
       </c>
       <c r="AA66" s="15"/>
       <c r="AB66" s="15"/>
@@ -8949,9 +8745,8 @@
       <c r="BB66" s="15"/>
       <c r="BC66" s="15"/>
       <c r="BD66" s="15"/>
-      <c r="BE66" s="11" t="e" cm="1">
-        <f t="array" ref="BE66">_xlfn.XLOOKUP($B66,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE66" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="2:57" x14ac:dyDescent="0.45">
@@ -8973,9 +8768,8 @@
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
-      <c r="R67" s="5" t="e" cm="1">
-        <f t="array" ref="R67">_xlfn.XLOOKUP($B67,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R67" s="5">
+        <v>2</v>
       </c>
       <c r="S67" s="15"/>
       <c r="T67" s="15"/>
@@ -8984,9 +8778,8 @@
       <c r="W67" s="15"/>
       <c r="X67" s="15"/>
       <c r="Y67" s="15"/>
-      <c r="Z67" s="5" t="e" cm="1">
-        <f t="array" ref="Z67">_xlfn.XLOOKUP($B67,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z67" s="5">
+        <v>2</v>
       </c>
       <c r="AA67" s="15"/>
       <c r="AB67" s="15"/>
@@ -9018,9 +8811,8 @@
       <c r="BB67" s="15"/>
       <c r="BC67" s="15"/>
       <c r="BD67" s="15"/>
-      <c r="BE67" s="11" t="e" cm="1">
-        <f t="array" ref="BE67">_xlfn.XLOOKUP($B67,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE67" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="2:57" x14ac:dyDescent="0.45">
@@ -9042,9 +8834,8 @@
       <c r="O68" s="15"/>
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
-      <c r="R68" s="5" t="e" cm="1">
-        <f t="array" ref="R68">_xlfn.XLOOKUP($B68,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R68" s="5">
+        <v>2</v>
       </c>
       <c r="S68" s="15"/>
       <c r="T68" s="15"/>
@@ -9053,9 +8844,8 @@
       <c r="W68" s="15"/>
       <c r="X68" s="15"/>
       <c r="Y68" s="15"/>
-      <c r="Z68" s="5" t="e" cm="1">
-        <f t="array" ref="Z68">_xlfn.XLOOKUP($B68,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z68" s="5">
+        <v>2</v>
       </c>
       <c r="AA68" s="15"/>
       <c r="AB68" s="15"/>
@@ -9087,9 +8877,8 @@
       <c r="BB68" s="15"/>
       <c r="BC68" s="15"/>
       <c r="BD68" s="15"/>
-      <c r="BE68" s="11" t="e" cm="1">
-        <f t="array" ref="BE68">_xlfn.XLOOKUP($B68,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE68" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:57" x14ac:dyDescent="0.45">
@@ -9111,9 +8900,8 @@
       <c r="O69" s="15"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
-      <c r="R69" s="5" t="e" cm="1">
-        <f t="array" ref="R69">_xlfn.XLOOKUP($B69,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R69" s="5">
+        <v>2</v>
       </c>
       <c r="S69" s="15"/>
       <c r="T69" s="15"/>
@@ -9122,9 +8910,8 @@
       <c r="W69" s="15"/>
       <c r="X69" s="15"/>
       <c r="Y69" s="15"/>
-      <c r="Z69" s="5" t="e" cm="1">
-        <f t="array" ref="Z69">_xlfn.XLOOKUP($B69,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z69" s="5">
+        <v>2</v>
       </c>
       <c r="AA69" s="15"/>
       <c r="AB69" s="15"/>
@@ -9156,9 +8943,8 @@
       <c r="BB69" s="15"/>
       <c r="BC69" s="15"/>
       <c r="BD69" s="15"/>
-      <c r="BE69" s="11" t="e" cm="1">
-        <f t="array" ref="BE69">_xlfn.XLOOKUP($B69,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE69" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="2:57" x14ac:dyDescent="0.45">
@@ -9180,9 +8966,8 @@
       <c r="O70" s="15"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
-      <c r="R70" s="5" t="e" cm="1">
-        <f t="array" ref="R70">_xlfn.XLOOKUP($B70,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R70" s="5">
+        <v>2</v>
       </c>
       <c r="S70" s="15"/>
       <c r="T70" s="15"/>
@@ -9191,9 +8976,8 @@
       <c r="W70" s="15"/>
       <c r="X70" s="15"/>
       <c r="Y70" s="15"/>
-      <c r="Z70" s="5" t="e" cm="1">
-        <f t="array" ref="Z70">_xlfn.XLOOKUP($B70,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z70" s="5">
+        <v>2</v>
       </c>
       <c r="AA70" s="15"/>
       <c r="AB70" s="15"/>
@@ -9225,9 +9009,8 @@
       <c r="BB70" s="15"/>
       <c r="BC70" s="15"/>
       <c r="BD70" s="15"/>
-      <c r="BE70" s="11" t="e" cm="1">
-        <f t="array" ref="BE70">_xlfn.XLOOKUP($B70,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE70" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="2:57" x14ac:dyDescent="0.45">
@@ -9249,9 +9032,8 @@
       <c r="O71" s="15"/>
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
-      <c r="R71" s="5" t="e" cm="1">
-        <f t="array" ref="R71">_xlfn.XLOOKUP($B71,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R71" s="5">
+        <v>1</v>
       </c>
       <c r="S71" s="15"/>
       <c r="T71" s="15"/>
@@ -9260,9 +9042,8 @@
       <c r="W71" s="15"/>
       <c r="X71" s="15"/>
       <c r="Y71" s="15"/>
-      <c r="Z71" s="5" t="e" cm="1">
-        <f t="array" ref="Z71">_xlfn.XLOOKUP($B71,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z71" s="5">
+        <v>2</v>
       </c>
       <c r="AA71" s="15"/>
       <c r="AB71" s="15"/>
@@ -9294,9 +9075,8 @@
       <c r="BB71" s="15"/>
       <c r="BC71" s="15"/>
       <c r="BD71" s="15"/>
-      <c r="BE71" s="11" t="e" cm="1">
-        <f t="array" ref="BE71">_xlfn.XLOOKUP($B71,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE71" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:57" x14ac:dyDescent="0.45">
@@ -9318,9 +9098,8 @@
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
-      <c r="R72" s="5" t="e" cm="1">
-        <f t="array" ref="R72">_xlfn.XLOOKUP($B72,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R72" s="5">
+        <v>1</v>
       </c>
       <c r="S72" s="15"/>
       <c r="T72" s="15"/>
@@ -9329,9 +9108,8 @@
       <c r="W72" s="15"/>
       <c r="X72" s="15"/>
       <c r="Y72" s="15"/>
-      <c r="Z72" s="5" t="e" cm="1">
-        <f t="array" ref="Z72">_xlfn.XLOOKUP($B72,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z72" s="5">
+        <v>2</v>
       </c>
       <c r="AA72" s="15"/>
       <c r="AB72" s="15"/>
@@ -9363,9 +9141,8 @@
       <c r="BB72" s="15"/>
       <c r="BC72" s="15"/>
       <c r="BD72" s="15"/>
-      <c r="BE72" s="11" t="e" cm="1">
-        <f t="array" ref="BE72">_xlfn.XLOOKUP($B72,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE72" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:57" x14ac:dyDescent="0.45">
@@ -9387,9 +9164,8 @@
       <c r="O73" s="15"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
-      <c r="R73" s="5" t="e" cm="1">
-        <f t="array" ref="R73">_xlfn.XLOOKUP($B73,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R73" s="5">
+        <v>1</v>
       </c>
       <c r="S73" s="15"/>
       <c r="T73" s="15"/>
@@ -9398,9 +9174,8 @@
       <c r="W73" s="15"/>
       <c r="X73" s="15"/>
       <c r="Y73" s="15"/>
-      <c r="Z73" s="5" t="e" cm="1">
-        <f t="array" ref="Z73">_xlfn.XLOOKUP($B73,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z73" s="5">
+        <v>2</v>
       </c>
       <c r="AA73" s="15"/>
       <c r="AB73" s="15"/>
@@ -9432,9 +9207,8 @@
       <c r="BB73" s="15"/>
       <c r="BC73" s="15"/>
       <c r="BD73" s="15"/>
-      <c r="BE73" s="11" t="e" cm="1">
-        <f t="array" ref="BE73">_xlfn.XLOOKUP($B73,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE73" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:57" x14ac:dyDescent="0.45">
@@ -9456,9 +9230,8 @@
       <c r="O74" s="15"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
-      <c r="R74" s="5" t="e" cm="1">
-        <f t="array" ref="R74">_xlfn.XLOOKUP($B74,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R74" s="5">
+        <v>1</v>
       </c>
       <c r="S74" s="15"/>
       <c r="T74" s="15"/>
@@ -9467,9 +9240,8 @@
       <c r="W74" s="15"/>
       <c r="X74" s="15"/>
       <c r="Y74" s="15"/>
-      <c r="Z74" s="5" t="e" cm="1">
-        <f t="array" ref="Z74">_xlfn.XLOOKUP($B74,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z74" s="5">
+        <v>2</v>
       </c>
       <c r="AA74" s="15"/>
       <c r="AB74" s="15"/>
@@ -9501,9 +9273,8 @@
       <c r="BB74" s="15"/>
       <c r="BC74" s="15"/>
       <c r="BD74" s="15"/>
-      <c r="BE74" s="11" t="e" cm="1">
-        <f t="array" ref="BE74">_xlfn.XLOOKUP($B74,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE74" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:57" x14ac:dyDescent="0.45">
@@ -9525,9 +9296,8 @@
       <c r="O75" s="15"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
-      <c r="R75" s="5" t="e" cm="1">
-        <f t="array" ref="R75">_xlfn.XLOOKUP($B75,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R75" s="5">
+        <v>1</v>
       </c>
       <c r="S75" s="15"/>
       <c r="T75" s="15"/>
@@ -9536,9 +9306,8 @@
       <c r="W75" s="15"/>
       <c r="X75" s="15"/>
       <c r="Y75" s="15"/>
-      <c r="Z75" s="5" t="e" cm="1">
-        <f t="array" ref="Z75">_xlfn.XLOOKUP($B75,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z75" s="5">
+        <v>1</v>
       </c>
       <c r="AA75" s="15"/>
       <c r="AB75" s="15"/>
@@ -9570,9 +9339,8 @@
       <c r="BB75" s="15"/>
       <c r="BC75" s="15"/>
       <c r="BD75" s="15"/>
-      <c r="BE75" s="11" t="e" cm="1">
-        <f t="array" ref="BE75">_xlfn.XLOOKUP($B75,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE75" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:57" x14ac:dyDescent="0.45">
@@ -9594,9 +9362,8 @@
       <c r="O76" s="15"/>
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
-      <c r="R76" s="5" t="e" cm="1">
-        <f t="array" ref="R76">_xlfn.XLOOKUP($B76,#REF!,_xlfn.XLOOKUP(回答データ!R$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="R76" s="5">
+        <v>1</v>
       </c>
       <c r="S76" s="15"/>
       <c r="T76" s="15"/>
@@ -9605,9 +9372,8 @@
       <c r="W76" s="15"/>
       <c r="X76" s="15"/>
       <c r="Y76" s="15"/>
-      <c r="Z76" s="5" t="e" cm="1">
-        <f t="array" ref="Z76">_xlfn.XLOOKUP($B76,#REF!,_xlfn.XLOOKUP(回答データ!Z$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="Z76" s="5">
+        <v>1</v>
       </c>
       <c r="AA76" s="15"/>
       <c r="AB76" s="15"/>
@@ -9639,9 +9405,8 @@
       <c r="BB76" s="15"/>
       <c r="BC76" s="15"/>
       <c r="BD76" s="15"/>
-      <c r="BE76" s="11" t="e" cm="1">
-        <f t="array" ref="BE76">_xlfn.XLOOKUP($B76,#REF!,_xlfn.XLOOKUP(回答データ!BE$2,#REF!,#REF!))</f>
-        <v>#REF!</v>
+      <c r="BE76" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:57" x14ac:dyDescent="0.45">
@@ -23696,6 +23461,6 @@
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>